--- a/Enrollment-Completions-Unemployment Chart.xlsx
+++ b/Enrollment-Completions-Unemployment Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carter\Desktop\Project 1\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0ECF0EDA-DF32-46DC-AB2D-3B4B60387F7D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22EEE994-9A86-4CD0-A2FA-CD2F5ED325CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="1" activeTab="1" xr2:uid="{170E097B-D646-4A64-9597-7E0C22C8C3E2}"/>
   </bookViews>
@@ -194,7 +194,16 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Completions, and Unemployment</a:t>
+              <a:t> Completions, and Unemployment Rates of Change </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>2006-2017</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -231,7 +240,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10714334790224656"/>
+          <c:y val="0.15061928934010152"/>
+          <c:w val="0.80964418972466456"/>
+          <c:h val="0.75517454734401857"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1034,9 +1053,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1512,6 +1529,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Enrollment</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> and Completion Rates of Change (YoY, %)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1554,6 +1631,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Unemployment Rate of Change (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1601,6 +1733,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="58373903"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1615,7 +1748,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.59896588051998323"/>
+          <c:y val="0.17700734745187469"/>
+          <c:w val="0.31702400837527828"/>
+          <c:h val="0.21198911609768409"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2250,15 +2393,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>298451</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2597,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129B9969-730A-4BB3-8361-5364EC299E5F}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Enrollment-Completions-Unemployment Chart.xlsx
+++ b/Enrollment-Completions-Unemployment Chart.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carter\Desktop\Project 1\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22EEE994-9A86-4CD0-A2FA-CD2F5ED325CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF966E04-FAFE-45C4-B376-6C7D5EABB981}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="1" activeTab="1" xr2:uid="{170E097B-D646-4A64-9597-7E0C22C8C3E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="2" activeTab="2" xr2:uid="{170E097B-D646-4A64-9597-7E0C22C8C3E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="enrollmentByYear_for_CombinedPl" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Regression Output Lag" sheetId="9" r:id="rId4"/>
+    <sheet name="Regression Output" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Jobless Claims Annual Rate of Change</t>
   </si>
@@ -72,13 +75,108 @@
   <si>
     <t>Total Degrees Granted Rate of Change</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Enrollment Rate of change</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Standard Residuals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -102,14 +200,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,44 +411,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -371,44 +494,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -457,44 +577,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -543,44 +660,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -629,44 +743,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -717,44 +828,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -805,44 +913,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -893,44 +998,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -981,44 +1083,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -1067,44 +1166,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -1115,44 +1211,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.3266313464631647E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3266313464631647E-3</c:v>
+                  <c:v>1.4175312229361525E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4175312229361525E-2</c:v>
+                  <c:v>2.3416891024645059E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3416891024645059E-2</c:v>
+                  <c:v>5.7879158241936457E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7879158241936457E-2</c:v>
+                  <c:v>5.6689791194729722E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6689791194729722E-2</c:v>
+                  <c:v>2.6382979384981464E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6382979384981464E-2</c:v>
+                  <c:v>2.50353355879529E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.50353355879529E-5</c:v>
+                  <c:v>-1.3916479078157185E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3916479078157185E-2</c:v>
+                  <c:v>3.0969971731826806E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0969971731826806E-3</c:v>
+                  <c:v>-8.2065752990195806E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.2065752990195806E-3</c:v>
+                  <c:v>-7.1577320288447321E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.1577320288447321E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>-1.0045048999059003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1214,44 +1307,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -1262,44 +1352,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$L$2:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-4.0025729343901695E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.0025729343901695E-2</c:v>
+                  <c:v>-5.2696422781800534E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.2696422781800534E-2</c:v>
+                  <c:v>-1.5834987564743219E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.5834987564743219E-2</c:v>
+                  <c:v>0.1486564811165465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1486564811165465</c:v>
+                  <c:v>0.23130487435664548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23130487435664548</c:v>
+                  <c:v>-0.22327678059175482</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.22327678059175482</c:v>
+                  <c:v>-3.904271484045263E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.904271484045263E-3</c:v>
+                  <c:v>-0.16341447912032037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.16341447912032037</c:v>
+                  <c:v>-2.3020817504938451E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.3020817504938451E-2</c:v>
+                  <c:v>-3.6368820799958512E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.6368820799958512E-2</c:v>
+                  <c:v>3.8279442621186766E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8279442621186766E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2.5338756898204418E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1346,44 +1433,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -1394,44 +1478,41 @@
               <c:f>enrollmentByYear_for_CombinedPl!$M$2:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>-9.8039215686274495E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9.8039215686274495E-2</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.26086956521739102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26086956521739102</c:v>
+                  <c:v>0.60344827586206895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60344827586206895</c:v>
+                  <c:v>3.2258064516128997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2258064516128997E-2</c:v>
+                  <c:v>-7.2916666666666602E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.2916666666666602E-2</c:v>
+                  <c:v>-8.9887640449438297E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.9887640449438297E-2</c:v>
+                  <c:v>-8.6419753086419693E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.6419753086419693E-2</c:v>
+                  <c:v>-0.162162162162162</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.162162162162162</c:v>
+                  <c:v>-0.14516129032257999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.14516129032257999</c:v>
+                  <c:v>-7.5471698113207392E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.5471698113207392E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>-0.10204081632653</c:v>
                 </c:pt>
               </c:numCache>
@@ -1824,6 +1905,1178 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unemployment Annual Rate of Change  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-9.8039215686274495E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26086956521739102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60344827586206895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2258064516128997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.2916666666666602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.9887640449438297E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6419753086419693E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.162162162162162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.14516129032257999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.5471698113207392E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regression Output Lag'!$C$25:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2398479499935536E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1969988671031263E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0701461931788165E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4278056949143525E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1754312187280069E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.2297527350361663E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6497340068470687E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7408211792702133E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.6586597877605841E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.2866925840643853E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.4047822283486729E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5471-4436-86B6-BBEB7081D0A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="67313647"/>
+        <c:axId val="58110191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="67313647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Unemployment Annual Rate of Change</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58110191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58110191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67313647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unemployment Annual Rate of Change Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Enrollment Rate of change</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-9.8039215686274495E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26086956521739102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60344827586206895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2258064516128997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.2916666666666602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.9887640449438297E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6419753086419693E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.162162162162162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.14516129032257999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.5471698113207392E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.4175312229361525E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3416891024645059E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7879158241936457E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6689791194729722E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6382979384981464E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.50353355879529E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3916479078157185E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0969971731826806E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.2065752990195806E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.1577320288447321E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0045048999059003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5017-4B77-B340-9AC5B31C489E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Enrollment Rate of change</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-9.8039215686274495E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26086956521739102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60344827586206895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2258064516128997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.2916666666666602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.9887640449438297E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6419753086419693E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.162162162162162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.14516129032257999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.5471698113207392E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regression Output Lag'!$B$25:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.7768327294259891E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1446902353613796E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7177696310148292E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0967848143873247E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4628667197701395E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2547880706241192E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5808609903135039E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9229150552556593E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.5479155112589965E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8710394447803468E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0027732844277247E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5017-4B77-B340-9AC5B31C489E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="67309647"/>
+        <c:axId val="58116847"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="67309647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Unemployment Annual Rate of Change</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58116847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58116847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Enrollment Rate of change</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67309647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unemployment Annual Rate of Change  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-9.8039215686274495E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26086956521739102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60344827586206895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2258064516128997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.2916666666666602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.9887640449438297E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6419753086419693E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.162162162162162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.14516129032257999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.5471698113207392E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.10204081632653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regression Output'!$C$25:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.1660348929682799E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0559155330413838E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.8798350134535751E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.2280261559115564E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1951692483028366E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0182940369262603E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.7973040594452027E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.9020340745616548E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1418862839140338E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.5418129261243137E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.3150354198612612E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3880796463050864E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2DCC-4913-84DD-B9E20339A7CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2056174415"/>
+        <c:axId val="2061366447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2056174415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Unemployment Annual Rate of Change</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2061366447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2061366447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2056174415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unemployment Annual Rate of Change Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Enrollment Rate of change</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-9.8039215686274495E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26086956521739102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60344827586206895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2258064516128997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.2916666666666602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.9887640449438297E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6419753086419693E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.162162162162162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.14516129032257999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.5471698113207392E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.10204081632653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4175312229361525E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3416891024645059E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7879158241936457E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6689791194729722E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6382979384981464E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.50353355879529E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3916479078157185E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0969971731826806E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.2065752990195806E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.1577320288447321E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.0045048999059003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A6E4-431A-AE3F-5FEE6ADDEC51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Enrollment Rate of change</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-9.8039215686274495E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26086956521739102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60344827586206895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2258064516128997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.2916666666666602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.9887640449438297E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6419753086419693E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.162162162162162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.14516129032257999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.5471698113207392E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.10204081632653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regression Output'!$B$25:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.1605964534948848E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2119396696320141E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3296726038098634E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1107184397848013E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4738098711701352E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2000390157188612E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8223393950331556E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1038616674593633E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0448891107313531E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3523762710473311E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9926221697678798E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.835747463991861E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A6E4-431A-AE3F-5FEE6ADDEC51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2056185215"/>
+        <c:axId val="2061354799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2056185215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Unemployment Annual Rate of Change</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2061354799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2061354799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Enrollment Rate of change</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2056185215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2392,16 +3645,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>468780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>131667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>298451</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>253627</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115794</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2421,6 +3674,160 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78073C88-EA8B-4B0B-A884-896ABFEB32E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>308429</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>549730</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8C3BED-D062-45BA-BF35-3B7EB0827954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>461817</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5E78FA-9DA2-4DF8-8137-FB932EA3798C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292098</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>461818</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>92363</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7611FAE-4B2B-4623-9884-DD45920C1C33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2740,13 +4147,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129B9969-730A-4BB3-8361-5364EC299E5F}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" hidden="1" customWidth="1"/>
@@ -2809,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -3442,6 +4849,1022 @@
       </c>
       <c r="O14">
         <v>-6.9376860926446202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009078FF-EFA5-4D06-8FC8-155E46149E78}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-4.0025729343901695E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-9.8039215686274495E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.4175312229361525E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-5.2696422781800534E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.3416891024645059E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-1.5834987564743219E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.26086956521739102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.7879158241936457E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1486564811165465</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.60344827586206895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.6689791194729722E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.23130487435664548</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.2258064516128997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.6382979384981464E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.22327678059175482</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-7.2916666666666602E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.50353355879529E-5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-3.904271484045263E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-8.9887640449438297E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-1.3916479078157185E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-0.16341447912032037</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-8.6419753086419693E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.0969971731826806E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-2.3020817504938451E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.162162162162162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-8.2065752990195806E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-3.6368820799958512E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.14516129032257999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-7.1577320288447321E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.8279442621186766E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-7.5471698113207392E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-1.0045048999059003E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.5338756898204418E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.10204081632653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8E8410-7B45-425E-8152-D04E1D7AB8F8}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.87132872315300613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.75921374379144801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.73245971532383114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.3278078809437132E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5.0031711603078701E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.0031711603078701E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>28.377548626383557</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.7652850644304743E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.5867663918266105E-3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.763073768696234E-4</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.5899375521344811E-3</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.1446902353613796E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.0132912320977859E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.8522481154776278</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.901931729508485E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.368206846528555E-3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.0525597860699039E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2.368206846528555E-3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2.0525597860699039E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4">
+        <v>9.8634710166715656E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.8515793751052074E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.3270581587198329</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.7652850644304873E-4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5.6749074707878953E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.14052034562555235</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5.6749074707878953E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.14052034562555235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.7768327294259891E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.2398479499935536E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.98426474957697074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.1446902353613796E-2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.1969988671031263E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.95024860925833843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.7177696310148292E-2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.0701461931788165E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.6434046807331988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7.0967848143873247E-2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-1.4278056949143525E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-1.1334767418510912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.4628667197701395E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.1754312187280069E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.93312693234060717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4.2547880706241192E-3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-4.2297527350361663E-3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-0.3357828285754334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2.5808609903135039E-3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-1.6497340068470687E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-1.3096565825885222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2.9229150552556593E-3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.7408211792702133E-4</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.381966975935712E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3">
+        <v>-4.5479155112589965E-3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-3.6586597877605841E-3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-0.29044608734532545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3">
+        <v>-2.8710394447803468E-3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-4.2866925840643853E-3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-0.34030305109505782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4.0027732844277247E-3</v>
+      </c>
+      <c r="C35" s="4">
+        <v>-1.4047822283486729E-2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-1.1151993502130437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D97DC5-CCC5-4CA7-81A7-E3726E9B57BF}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.72478433961872379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.52531233895654961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.47784357285220452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.7712772557321611E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.4720242613711736E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.4720242613711736E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11.066483965515703</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7.6612552556825121E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.1374231166740553E-3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.1374231166740553E-4</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.6094473780452289E-3</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.2119396696320141E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.1149178607394425E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.3694215677137169</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3.9316032681696596E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7.2264948608806966E-4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.3516143906552212E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7.2264948608806966E-4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2.3516143906552212E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8.117976247681763E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.4402984649871545E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.326632526371931</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7.6612552556825225E-3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.6806524274014171E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.13555300067962109</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2.6806524274014171E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.13555300067962109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4.1605964534948848E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4.1660348929682799E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.24667929559817175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.2119396696320141E-2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2.0559155330413838E-3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.12173488905625683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.3296726038098634E-2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-9.8798350134535751E-3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-0.58500487978592597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6.1107184397848013E-2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-3.2280261559115564E-3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-0.19113791381266756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.4738098711701352E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.1951692483028366E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2.4840439930860052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.2000390157188612E-3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2.0182940369262603E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.1950724468950125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4.8223393950331556E-3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-4.7973040594452027E-3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-0.28405801116827151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5.1038616674593633E-3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-1.9020340745616548E-2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-1.1262325875103081</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3">
+        <v>-1.0448891107313531E-3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.1418862839140338E-3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.24524940794139008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3.3523762710473311E-4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-8.5418129261243137E-3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-0.50577790390190747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.9926221697678798E-3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-1.3150354198612612E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-0.77865889122905108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4">
+        <v>3.835747463991861E-3</v>
+      </c>
+      <c r="C36" s="4">
+        <v>-1.3880796463050864E-2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-0.82190984516870491</v>
       </c>
     </row>
   </sheetData>

--- a/Enrollment-Completions-Unemployment Chart.xlsx
+++ b/Enrollment-Completions-Unemployment Chart.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carter\Desktop\Project 1\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF966E04-FAFE-45C4-B376-6C7D5EABB981}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{418DB576-5DEB-46A5-8813-44B3F2EA7513}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="2" activeTab="2" xr2:uid="{170E097B-D646-4A64-9597-7E0C22C8C3E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{170E097B-D646-4A64-9597-7E0C22C8C3E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="enrollmentByYear_for_CombinedPl" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="enrollmentByYear_for_CombinedPl" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
+    <sheet name="Unemployment vs. Enroll - Lag" sheetId="6" r:id="rId3"/>
     <sheet name="Regression Output Lag" sheetId="9" r:id="rId4"/>
     <sheet name="Regression Output" sheetId="7" r:id="rId5"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Jobless Claims Annual Rate of Change</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Standard Residuals</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1964,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$12</c:f>
+              <c:f>'Unemployment vs. Enroll - Lag'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2198,7 +2201,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$12</c:f>
+              <c:f>'Unemployment vs. Enroll - Lag'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2240,7 +2243,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$13</c:f>
+              <c:f>'Unemployment vs. Enroll - Lag'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2300,7 +2303,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$12</c:f>
+              <c:f>'Unemployment vs. Enroll - Lag'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2538,46 +2541,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$13</c:f>
+              <c:f>'Unemployment vs. Enroll - Lag'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-9.8039215686274495E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26086956521739102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60344827586206895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2258064516128997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.2916666666666602E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.9887640449438297E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8.6419753086419693E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.162162162162162</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.14516129032257999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-7.5471698113207392E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.10204081632653</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2669,7 +2636,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2781,52 +2748,16 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$13</c:f>
+              <c:f>'Unemployment vs. Enroll - Lag'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-9.8039215686274495E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26086956521739102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60344827586206895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2258064516128997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.2916666666666602E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.9887640449438297E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8.6419753086419693E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.162162162162162</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.14516129032257999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-7.5471698113207392E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.10204081632653</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$13</c:f>
+              <c:f>'Unemployment vs. Enroll - Lag'!$B$1:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2889,46 +2820,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$13</c:f>
+              <c:f>'Unemployment vs. Enroll - Lag'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-9.8039215686274495E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26086956521739102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60344827586206895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2258064516128997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.2916666666666602E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.9887640449438297E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8.6419753086419693E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.162162162162162</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.14516129032257999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-7.5471698113207392E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.10204081632653</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3020,7 +2915,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4132,23 +4027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3BF9B9-FA1D-454C-BCE3-37975A72B66D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129B9969-730A-4BB3-8361-5364EC299E5F}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:O14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4857,200 +4740,514 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009078FF-EFA5-4D06-8FC8-155E46149E78}">
-  <dimension ref="A1:D13"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A509193-0C6F-4DCC-A729-62FC5E30E1BA}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8.3266313464631647E-3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2">
+        <v>2008</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.5834987564743219E-2</v>
+      </c>
+      <c r="G2">
+        <v>2006</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-4.0025729343901695E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-9.8039215686274495E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f t="shared" ref="A3:A13" si="0">A2+1</f>
+        <v>2007</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.4175312229361525E-2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3">
+        <v>2009</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1486564811165465</v>
+      </c>
+      <c r="G3">
+        <v>2007</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-5.2696422781800534E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.3416891024645059E-2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4">
+        <v>2010</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.23130487435664548</v>
+      </c>
+      <c r="G4">
+        <v>2008</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-1.5834987564743219E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.26086956521739102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.7879158241936457E-2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5">
+        <v>2011</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.22327678059175482</v>
+      </c>
+      <c r="G5">
+        <v>2009</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.1486564811165465</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.60344827586206895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.6689791194729722E-2</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6">
+        <v>2012</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-3.904271484045263E-3</v>
+      </c>
+      <c r="G6">
+        <v>2010</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.23130487435664548</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.2258064516128997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.6382979384981464E-2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7">
+        <v>2013</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.16341447912032037</v>
+      </c>
+      <c r="G7">
+        <v>2011</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-0.22327678059175482</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-7.2916666666666602E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.50353355879529E-5</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8">
+        <v>2014</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-2.3020817504938451E-2</v>
+      </c>
+      <c r="G8">
+        <v>2012</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-3.904271484045263E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-8.9887640449438297E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-1.3916479078157185E-2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9">
+        <v>2015</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-3.6368820799958512E-2</v>
+      </c>
+      <c r="G9">
+        <v>2013</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-0.16341447912032037</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-8.6419753086419693E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.0969971731826806E-3</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10">
+        <v>2016</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.8279442621186766E-2</v>
+      </c>
+      <c r="G10">
+        <v>2014</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-2.3020817504938451E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-0.162162162162162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-8.2065752990195806E-3</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11">
+        <v>2017</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5338756898204418E-2</v>
+      </c>
+      <c r="G11">
+        <v>2015</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-3.6368820799958512E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-0.14516129032257999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="G12">
+        <v>2016</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.8279442621186766E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-7.5471698113207392E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="G13">
+        <v>2017</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.5338756898204418E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-0.10204081632653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009078FF-EFA5-4D06-8FC8-155E46149E78}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>2007</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.4175312229361525E-2</v>
+      </c>
+      <c r="D2">
         <v>2006</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-4.0025729343901695E-2</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>-9.8039215686274495E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.3416891024645059E-2</v>
+      </c>
+      <c r="D3">
         <v>2007</v>
       </c>
-      <c r="B3" s="2">
-        <v>1.4175312229361525E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-5.2696422781800534E-2</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.7879158241936457E-2</v>
+      </c>
+      <c r="D4">
         <v>2008</v>
       </c>
-      <c r="B4" s="2">
-        <v>2.3416891024645059E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-1.5834987564743219E-2</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.26086956521739102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.6689791194729722E-2</v>
+      </c>
+      <c r="D5">
         <v>2009</v>
       </c>
-      <c r="B5" s="2">
-        <v>5.7879158241936457E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.1486564811165465</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.60344827586206895</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.6382979384981464E-2</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="B6" s="2">
-        <v>5.6689791194729722E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.23130487435664548</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>3.2258064516128997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.50353355879529E-5</v>
+      </c>
+      <c r="D7">
         <v>2011</v>
       </c>
-      <c r="B7" s="2">
-        <v>2.6382979384981464E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-0.22327678059175482</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>-7.2916666666666602E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1.3916479078157185E-2</v>
+      </c>
+      <c r="D8">
         <v>2012</v>
       </c>
-      <c r="B8" s="2">
-        <v>2.50353355879529E-5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-3.904271484045263E-3</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>-8.9887640449438297E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.0969971731826806E-3</v>
+      </c>
+      <c r="D9">
         <v>2013</v>
       </c>
-      <c r="B9" s="2">
-        <v>-1.3916479078157185E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-0.16341447912032037</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>-8.6419753086419693E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-8.2065752990195806E-3</v>
+      </c>
+      <c r="D10">
         <v>2014</v>
       </c>
-      <c r="B10" s="2">
-        <v>3.0969971731826806E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-2.3020817504938451E-2</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>-0.162162162162162</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-7.1577320288447321E-3</v>
+      </c>
+      <c r="D11">
         <v>2015</v>
       </c>
-      <c r="B11" s="2">
-        <v>-8.2065752990195806E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-3.6368820799958512E-2</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>-0.14516129032257999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-1.0045048999059003E-2</v>
+      </c>
+      <c r="D12">
         <v>2016</v>
       </c>
-      <c r="B12" s="2">
-        <v>-7.1577320288447321E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3.8279442621186766E-2</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>-7.5471698113207392E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-1.0045048999059003E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.5338756898204418E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-0.10204081632653</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
